--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="140">
   <si>
     <t>Application</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">Password related issue with Varroc Company             cushwake password  issue.                                              ACS 800 API data inserted issue   resolve                               Stanza Issue for uploading   new joiner file          </t>
+  </si>
+  <si>
+    <t>Anupam Saxena's issue of Stanza Entity realated file upload file approve and PMS engine output result</t>
   </si>
 </sst>
 </file>
@@ -832,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,16 +3566,28 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>44000</v>
+      </c>
       <c r="B120" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>76</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G120" t="s">
+        <v>90</v>
+      </c>
+      <c r="I120" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edureka\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Development" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="142">
   <si>
     <t>Application</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Anupam Saxena's issue of Stanza Entity realated file upload file approve and PMS engine output result</t>
+  </si>
+  <si>
+    <t>Cutoff Date Configuration For API  Some query of Infoedge Company</t>
+  </si>
+  <si>
+    <t>cutoff Date Api Integration and Testing in UAT as well as Live server    Infoedge multiple time file showing</t>
   </si>
 </sst>
 </file>
@@ -835,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,10 +3596,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>44001</v>
+      </c>
       <c r="B121" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3601,17 +3610,32 @@
       <c r="D121" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E121" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G121" t="s">
+        <v>90</v>
+      </c>
+      <c r="I121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>44004</v>
+      </c>
       <c r="B122" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" t="s">
         <v>76</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="143">
   <si>
     <t>Application</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>cutoff Date Api Integration and Testing in UAT as well as Live server    Infoedge multiple time file showing</t>
+  </si>
+  <si>
+    <t>Anupam Saxena Query                                                          Set the File Cutoff Integreation date for UST</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+      <selection activeCell="I121" sqref="I121:I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,17 +3640,32 @@
       <c r="E122" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>44005</v>
+      </c>
       <c r="B123" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123" t="s">
         <v>76</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G123" t="s">
+        <v>90</v>
+      </c>
+      <c r="I123" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="144">
   <si>
     <t>Application</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>Anupam Saxena Query                                                          Set the File Cutoff Integreation date for UST</t>
+  </si>
+  <si>
+    <t>Payu New Joiner file issue                                         Testing the New Joiner file to find out the root cause Vinod Kumar query for PHFL PAYROLL and G4SIND  File Cutoff page work on Kendo</t>
   </si>
 </sst>
 </file>
@@ -845,7 +848,7 @@
   <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121:I123"/>
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,16 +3671,28 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>44006</v>
+      </c>
       <c r="B124" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="s">
         <v>76</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
+      <c r="I124" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="146">
   <si>
     <t>Application</t>
   </si>
@@ -461,7 +461,13 @@
     <t>Anupam Saxena Query                                                          Set the File Cutoff Integreation date for UST</t>
   </si>
   <si>
-    <t>Payu New Joiner file issue                                         Testing the New Joiner file to find out the root cause Vinod Kumar query for PHFL PAYROLL and G4SIND  File Cutoff page work on Kendo</t>
+    <t>Payu New Joiner file issue                                         Vinod Kumar query for PHFL PAYROLL and G4SIND  File Cutoff page work on Kendo</t>
+  </si>
+  <si>
+    <t>Payu Entity Testing the New Joiner file to find out the root cause of some data approve and others not User Manual related meeting</t>
+  </si>
+  <si>
+    <t>Multiple input file's showing on Dashboard-Infoedge                                                                                     Demo Entity issue Myndcentral Login</t>
   </si>
 </sst>
 </file>
@@ -847,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,7 +3677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>44006</v>
       </c>
@@ -3695,10 +3701,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>44007</v>
+      </c>
       <c r="B125" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3706,17 +3715,38 @@
       <c r="D125" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E125" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" t="s">
+        <v>90</v>
+      </c>
+      <c r="I125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>44008</v>
+      </c>
       <c r="B126" t="str">
         <f t="shared" si="0"/>
-        <v>January,1900</v>
+        <v>June,2020</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126" t="s">
         <v>76</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G126" t="s">
+        <v>90</v>
+      </c>
+      <c r="I126" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="151">
   <si>
     <t>Application</t>
   </si>
@@ -468,6 +468,21 @@
   </si>
   <si>
     <t>Multiple input file's showing on Dashboard-Infoedge                                                                                     Demo Entity issue Myndcentral Login</t>
+  </si>
+  <si>
+    <t>Discussion on First Iteration with Mayank and Tamal</t>
+  </si>
+  <si>
+    <t>IVAP PHFL Employee does not exist issue                View making of calender setup</t>
+  </si>
+  <si>
+    <t>Blank screen after adding component in entity component                                                                            View making of calendar setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password Change for    Dassult and Frenius Company  Entity componennt sample download remaining component of PAYMAST and HRDMAST                                                      </t>
+  </si>
+  <si>
+    <t>Entity Component excel download exection for PAYMAST and HRDMAST</t>
   </si>
 </sst>
 </file>
@@ -854,7 +869,7 @@
   <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125:I126"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3749,83 +3764,143 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>44011</v>
+      </c>
       <c r="B127" t="str">
         <f t="shared" si="0"/>
+        <v>June,2020</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G127" t="s">
+        <v>90</v>
+      </c>
+      <c r="I127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="0"/>
+        <v>June,2020</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G128" t="s">
+        <v>90</v>
+      </c>
+      <c r="I128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="0"/>
+        <v>July,2020</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+      <c r="I129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="0"/>
+        <v>July,2020</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G130" t="s">
+        <v>90</v>
+      </c>
+      <c r="I130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="0"/>
+        <v>July,2020</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" t="s">
+        <v>90</v>
+      </c>
+      <c r="I131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" t="str">
+        <f t="shared" si="0"/>
         <v>January,1900</v>
       </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" t="str">
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="str">
         <f t="shared" si="0"/>
         <v>January,1900</v>
       </c>
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" t="str">
-        <f t="shared" si="0"/>
-        <v>January,1900</v>
-      </c>
-      <c r="C129" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" t="str">
-        <f t="shared" si="0"/>
-        <v>January,1900</v>
-      </c>
-      <c r="C130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="str">
-        <f t="shared" si="0"/>
-        <v>January,1900</v>
-      </c>
-      <c r="C131" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="str">
-        <f t="shared" si="0"/>
-        <v>January,1900</v>
-      </c>
-      <c r="C132" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="str">
-        <f t="shared" si="0"/>
-        <v>January,1900</v>
-      </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +3908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="str">
         <f t="shared" ref="B134:B142" si="1">TEXT(A134,"MMMM,yyyy")</f>
         <v>January,1900</v>
@@ -3845,7 +3920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3857,7 +3932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3869,7 +3944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3881,7 +3956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3893,7 +3968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3905,7 +3980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3917,7 +3992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
@@ -3929,7 +4004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="str">
         <f t="shared" si="1"/>
         <v>January,1900</v>
